--- a/revenue-streamlit/tenancy_list_scenario_01B.xlsx
+++ b/revenue-streamlit/tenancy_list_scenario_01B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8db03e8e420626a2/Office/AMG/Development/office/revenue-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{901A927F-D0CC-5048-AF6E-C0381FE059E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{901A927F-D0CC-5048-AF6E-C0381FE059E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C529285-4643-A44E-A927-311414F88EA6}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="-41240" windowWidth="47640" windowHeight="38340" tabRatio="765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="33260" windowHeight="21160" tabRatio="765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="192">
   <si>
     <t>AMG</t>
   </si>
@@ -234,9 +234,6 @@
     <t>{Vacant} -&gt; Ginting Reskodiputro</t>
   </si>
   <si>
-    <t>E, F</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMG </t>
   </si>
   <si>
@@ -621,10 +618,13 @@
     <t>{Vacant} -&gt; Korea Agro</t>
   </si>
   <si>
-    <t>{Vacant} -&gt;Medco Power Indonesia</t>
-  </si>
-  <si>
     <t>{Vacant} -&gt; New tenant MDAL</t>
+  </si>
+  <si>
+    <t>{Vacant} -&gt; Medco Mining</t>
+  </si>
+  <si>
+    <t>{Vacant} -&gt; New Tenant</t>
   </si>
 </sst>
 </file>
@@ -638,7 +638,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,6 +803,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1552,6 +1558,240 @@
   </cellStyles>
   <dxfs count="76">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1586,18 +1826,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -1614,21 +1842,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1671,21 +1884,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1725,21 +1923,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
       <fill>
         <patternFill patternType="none">
@@ -1761,21 +1944,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1815,21 +1983,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1873,22 +2026,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1925,21 +2062,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1982,35 +2104,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2029,21 +2122,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2070,21 +2148,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2105,21 +2168,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2162,35 +2210,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor rgb="FF000000"/>
@@ -2207,19 +2226,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2888,26 +2894,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A0023E2-6AF7-7B4C-AA3C-5526EA8C01E9}" name="Table1" displayName="Table1" ref="A1:N157" totalsRowCount="1" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
-  <autoFilter ref="A1:N156" xr:uid="{1A0023E2-6AF7-7B4C-AA3C-5526EA8C01E9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N156">
-    <sortCondition ref="A1:A156"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A0023E2-6AF7-7B4C-AA3C-5526EA8C01E9}" name="Table1" displayName="Table1" ref="A1:N158" totalsRowCount="1" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+  <autoFilter ref="A1:N157" xr:uid="{1A0023E2-6AF7-7B4C-AA3C-5526EA8C01E9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N157">
+    <sortCondition ref="A1:A157"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{82702CBB-B7D8-5C45-8EE8-39144A9E6839}" name="No" totalsRowLabel="Total" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{81693DE1-7410-4E03-8801-E72BA5AA4D0C}" name="Location" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{49AC1DFB-968F-8C4C-B46A-BA65A08A82F8}" name="Floor" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{7407A2D4-11A2-B14C-9C1E-EB812BA07976}" name="Zone" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{EDDF5F0D-2514-4DA3-8E09-CC07C1F5EC73}" name="Product_Type" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{584F12DA-F9A2-F044-BEE3-95C850B08187}" name="Group" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{9F70DA22-AD03-2E40-982C-172221ED7B17}" name="Tenant" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{38FEB9FC-3468-1746-8CEA-0778DBB66ECF}" name="Area" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{D64C9D1A-FA8B-4C4D-B607-52E1E05305B0}" name="Chg_Type" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{CFF86D67-BC6E-F940-B6C5-060702DC8E14}" name="Start" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{A0B757F2-99D8-6B48-9212-0A3F40DF200F}" name="End" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{29206E0A-C3D4-7148-A9B7-062237C9AD9C}" name="Rental_Rate" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Comma [0]"/>
-    <tableColumn id="12" xr3:uid="{6631B20D-5386-3149-B067-110BB05C3B0A}" name="SC_Rate" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Comma [0]"/>
-    <tableColumn id="5" xr3:uid="{61759F5E-0021-784D-BB1B-F0F0AD385D08}" name="Notes_1" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{82702CBB-B7D8-5C45-8EE8-39144A9E6839}" name="No" totalsRowLabel="Total" dataDxfId="31" totalsRowDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{81693DE1-7410-4E03-8801-E72BA5AA4D0C}" name="Location" dataDxfId="30" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{49AC1DFB-968F-8C4C-B46A-BA65A08A82F8}" name="Floor" dataDxfId="29" totalsRowDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{7407A2D4-11A2-B14C-9C1E-EB812BA07976}" name="Zone" dataDxfId="28" totalsRowDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{EDDF5F0D-2514-4DA3-8E09-CC07C1F5EC73}" name="Product_Type" dataDxfId="27" totalsRowDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{584F12DA-F9A2-F044-BEE3-95C850B08187}" name="Group" dataDxfId="26" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{9F70DA22-AD03-2E40-982C-172221ED7B17}" name="Tenant" dataDxfId="25" totalsRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{38FEB9FC-3468-1746-8CEA-0778DBB66ECF}" name="Area" dataDxfId="24" totalsRowDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{D64C9D1A-FA8B-4C4D-B607-52E1E05305B0}" name="Chg_Type" dataDxfId="23" totalsRowDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{CFF86D67-BC6E-F940-B6C5-060702DC8E14}" name="Start" dataDxfId="22" totalsRowDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{A0B757F2-99D8-6B48-9212-0A3F40DF200F}" name="End" dataDxfId="21" totalsRowDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{29206E0A-C3D4-7148-A9B7-062237C9AD9C}" name="Rental_Rate" dataDxfId="20" totalsRowDxfId="2" dataCellStyle="Comma [0]"/>
+    <tableColumn id="12" xr3:uid="{6631B20D-5386-3149-B067-110BB05C3B0A}" name="SC_Rate" dataDxfId="19" totalsRowDxfId="1" dataCellStyle="Comma [0]"/>
+    <tableColumn id="5" xr3:uid="{61759F5E-0021-784D-BB1B-F0F0AD385D08}" name="Notes_1" dataDxfId="18" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3231,7 +3237,7 @@
         <v>44562</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
@@ -3242,7 +3248,7 @@
         <v>48579</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J5" s="21">
         <v>60456.682860379246</v>
@@ -3250,14 +3256,14 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="19">
         <f>J7</f>
         <v>60736.472860379246</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J6" s="21">
         <v>279.79000000000002</v>
@@ -3265,13 +3271,13 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" t="s">
         <v>118</v>
-      </c>
-      <c r="C7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" t="s">
-        <v>119</v>
       </c>
       <c r="J7" s="22">
         <f>SUM(J5:J6)</f>
@@ -3285,11 +3291,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N157"/>
+  <dimension ref="A1:N158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="165" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K133" sqref="K133"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3309,46 +3315,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>79</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>80</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J1" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="L1" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="N1" s="28" t="s">
         <v>127</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -3356,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -3365,10 +3371,10 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>19</v>
@@ -3398,7 +3404,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2">
         <v>55</v>
@@ -3407,10 +3413,10 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>19</v>
@@ -3441,7 +3447,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="2">
         <v>53</v>
@@ -3450,10 +3456,10 @@
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>19</v>
@@ -3484,7 +3490,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="2">
         <v>52</v>
@@ -3493,10 +3499,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>20</v>
@@ -3527,7 +3533,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="4">
         <v>51</v>
@@ -3536,10 +3542,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>21</v>
@@ -3568,19 +3574,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" s="4">
         <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>20</v>
@@ -3611,7 +3617,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" s="2">
         <v>50</v>
@@ -3620,10 +3626,10 @@
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>20</v>
@@ -3654,7 +3660,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="2">
         <v>39</v>
@@ -3663,10 +3669,10 @@
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>22</v>
@@ -3697,7 +3703,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="2">
         <v>38</v>
@@ -3706,10 +3712,10 @@
         <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>22</v>
@@ -3740,7 +3746,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="2">
         <v>37</v>
@@ -3749,10 +3755,10 @@
         <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>22</v>
@@ -3783,7 +3789,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" s="2">
         <v>36</v>
@@ -3792,10 +3798,10 @@
         <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>22</v>
@@ -3826,7 +3832,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" s="2">
         <v>35</v>
@@ -3835,10 +3841,10 @@
         <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>23</v>
@@ -3869,7 +3875,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2">
         <v>33</v>
@@ -3878,10 +3884,10 @@
         <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>25</v>
@@ -3911,7 +3917,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2">
         <v>33</v>
@@ -3920,13 +3926,13 @@
         <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H15" s="35">
         <v>704.51</v>
@@ -3953,7 +3959,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2">
         <v>33</v>
@@ -3962,10 +3968,10 @@
         <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>22</v>
@@ -3996,7 +4002,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C17" s="4">
         <v>32</v>
@@ -4005,13 +4011,13 @@
         <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H17" s="36">
         <v>347.01</v>
@@ -4032,7 +4038,7 @@
         <v>84100</v>
       </c>
       <c r="N17" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -4040,7 +4046,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2">
         <v>32</v>
@@ -4049,13 +4055,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H18" s="38">
         <v>357.73</v>
@@ -4076,7 +4082,7 @@
         <v>70000</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -4084,19 +4090,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="4">
         <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>28</v>
@@ -4120,7 +4126,7 @@
         <v>70000</v>
       </c>
       <c r="N19" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -4128,19 +4134,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="4">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>28</v>
@@ -4164,7 +4170,7 @@
         <v>70000</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -4172,19 +4178,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" s="4">
         <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>56</v>
@@ -4208,7 +4214,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C22" s="4">
         <v>32</v>
@@ -4217,13 +4223,13 @@
         <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H22" s="8">
         <v>488.65</v>
@@ -4250,7 +4256,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C23" s="2">
         <v>31</v>
@@ -4259,10 +4265,10 @@
         <v>24</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>29</v>
@@ -4292,7 +4298,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" s="4">
         <v>31</v>
@@ -4301,10 +4307,10 @@
         <v>18</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>46</v>
@@ -4334,7 +4340,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="2">
         <v>30</v>
@@ -4343,13 +4349,13 @@
         <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H25" s="8">
         <v>162.18</v>
@@ -4376,7 +4382,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C26" s="2">
         <v>30</v>
@@ -4385,10 +4391,10 @@
         <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>30</v>
@@ -4418,7 +4424,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="2">
         <v>30</v>
@@ -4427,13 +4433,13 @@
         <v>5</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H27" s="8">
         <v>168.21</v>
@@ -4460,7 +4466,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C28" s="2">
         <v>30</v>
@@ -4469,10 +4475,10 @@
         <v>6</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>31</v>
@@ -4500,7 +4506,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" s="2">
         <v>30</v>
@@ -4509,10 +4515,10 @@
         <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>32</v>
@@ -4542,7 +4548,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C30" s="2">
         <v>29</v>
@@ -4551,10 +4557,10 @@
         <v>18</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>20</v>
@@ -4585,7 +4591,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C31" s="4">
         <v>28</v>
@@ -4594,10 +4600,10 @@
         <v>18</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G31" s="42" t="s">
         <v>33</v>
@@ -4627,7 +4633,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C32" s="4">
         <v>28</v>
@@ -4636,10 +4642,10 @@
         <v>18</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G32" s="42" t="s">
         <v>56</v>
@@ -4663,7 +4669,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C33" s="4">
         <v>27</v>
@@ -4672,10 +4678,10 @@
         <v>3</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>34</v>
@@ -4705,7 +4711,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="4">
         <v>27</v>
@@ -4714,10 +4720,10 @@
         <v>3</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>56</v>
@@ -4741,7 +4747,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C35" s="4">
         <v>27</v>
@@ -4750,13 +4756,13 @@
         <v>4</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H35" s="8">
         <v>137.66999999999999</v>
@@ -4783,7 +4789,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C36" s="4">
         <v>27</v>
@@ -4792,10 +4798,10 @@
         <v>4</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>56</v>
@@ -4819,7 +4825,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C37" s="4">
         <v>27</v>
@@ -4828,10 +4834,10 @@
         <v>36</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>37</v>
@@ -4861,7 +4867,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C38" s="4">
         <v>27</v>
@@ -4870,10 +4876,10 @@
         <v>36</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>56</v>
@@ -4897,7 +4903,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C39" s="4">
         <v>26</v>
@@ -4906,10 +4912,10 @@
         <v>38</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>39</v>
@@ -4939,7 +4945,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C40" s="4">
         <v>26</v>
@@ -4948,10 +4954,10 @@
         <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>13</v>
@@ -4981,7 +4987,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C41" s="4">
         <v>26</v>
@@ -4990,13 +4996,13 @@
         <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H41" s="8">
         <v>275.33</v>
@@ -5023,7 +5029,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C42" s="4">
         <v>26</v>
@@ -5032,10 +5038,10 @@
         <v>41</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>40</v>
@@ -5065,7 +5071,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C43" s="4">
         <v>26</v>
@@ -5074,10 +5080,10 @@
         <v>6</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>40</v>
@@ -5107,7 +5113,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C44" s="4">
         <v>25</v>
@@ -5116,10 +5122,10 @@
         <v>3</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>22</v>
@@ -5150,7 +5156,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C45" s="4">
         <v>25</v>
@@ -5159,10 +5165,10 @@
         <v>4</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>37</v>
@@ -5192,7 +5198,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C46" s="4">
         <v>25</v>
@@ -5201,13 +5207,13 @@
         <v>4</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H46" s="43">
         <v>137.66999999999999</v>
@@ -5216,19 +5222,20 @@
         <v>3</v>
       </c>
       <c r="J46" s="7">
-        <v>45658</v>
+        <v>44986</v>
       </c>
       <c r="K46" s="5">
         <v>49309</v>
       </c>
       <c r="L46" s="6">
-        <v>400000</v>
+        <f>362500*11.5/12</f>
+        <v>347395.83333333331</v>
       </c>
       <c r="M46" s="40">
-        <v>70000</v>
+        <v>84100</v>
       </c>
       <c r="N46" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -5236,7 +5243,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C47" s="4">
         <v>25</v>
@@ -5245,13 +5252,13 @@
         <v>5</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="H47" s="8">
         <v>137.66999999999999</v>
@@ -5260,11 +5267,17 @@
         <v>3</v>
       </c>
       <c r="J47" s="7">
-        <v>45383</v>
-      </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
+        <v>45108</v>
+      </c>
+      <c r="K47" s="5">
+        <v>49309</v>
+      </c>
+      <c r="L47" s="6">
+        <v>383000</v>
+      </c>
+      <c r="M47" s="6">
+        <v>70000</v>
+      </c>
       <c r="N47" s="20"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -5272,7 +5285,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C48" s="4">
         <v>25</v>
@@ -5281,10 +5294,10 @@
         <v>6</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>42</v>
@@ -5314,7 +5327,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C49" s="4">
         <v>25</v>
@@ -5323,10 +5336,10 @@
         <v>6</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>56</v>
@@ -5348,7 +5361,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C50" s="4">
         <v>25</v>
@@ -5357,10 +5370,10 @@
         <v>44</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>43</v>
@@ -5390,7 +5403,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C51" s="4">
         <v>25</v>
@@ -5399,10 +5412,10 @@
         <v>9</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>43</v>
@@ -5432,7 +5445,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C52" s="4">
         <v>23</v>
@@ -5441,10 +5454,10 @@
         <v>18</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>47</v>
@@ -5474,7 +5487,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C53" s="4">
         <v>22</v>
@@ -5483,10 +5496,10 @@
         <v>18</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>20</v>
@@ -5516,7 +5529,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C54" s="4">
         <v>21</v>
@@ -5525,10 +5538,10 @@
         <v>18</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>47</v>
@@ -5558,7 +5571,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C55" s="4">
         <v>20</v>
@@ -5567,10 +5580,10 @@
         <v>3</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>20</v>
@@ -5601,7 +5614,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C56" s="4">
         <v>20</v>
@@ -5610,10 +5623,10 @@
         <v>45</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>49</v>
@@ -5643,7 +5656,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C57" s="4">
         <v>20</v>
@@ -5652,10 +5665,10 @@
         <v>45</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>48</v>
@@ -5685,7 +5698,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C58" s="4">
         <v>20</v>
@@ -5694,13 +5707,13 @@
         <v>7</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="H58" s="34">
         <v>250.99</v>
@@ -5709,11 +5722,17 @@
         <v>3</v>
       </c>
       <c r="J58" s="5">
-        <v>44562</v>
-      </c>
-      <c r="K58" s="5"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
+        <v>45108</v>
+      </c>
+      <c r="K58" s="5">
+        <v>46203</v>
+      </c>
+      <c r="L58" s="6">
+        <v>400000</v>
+      </c>
+      <c r="M58" s="6">
+        <v>70000</v>
+      </c>
       <c r="N58" s="20"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -5721,7 +5740,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C59" s="4">
         <v>20</v>
@@ -5730,10 +5749,10 @@
         <v>8</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>51</v>
@@ -5763,7 +5782,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C60" s="4">
         <v>20</v>
@@ -5772,13 +5791,13 @@
         <v>8</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H60" s="8">
         <v>137.67083232602312</v>
@@ -5805,7 +5824,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C61" s="4">
         <v>20</v>
@@ -5814,13 +5833,13 @@
         <v>9</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="H61" s="8">
         <v>137.71</v>
@@ -5829,11 +5848,17 @@
         <v>3</v>
       </c>
       <c r="J61" s="7">
-        <v>44562</v>
-      </c>
-      <c r="K61" s="5"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
+        <v>45108</v>
+      </c>
+      <c r="K61" s="5">
+        <v>46203</v>
+      </c>
+      <c r="L61" s="6">
+        <v>400000</v>
+      </c>
+      <c r="M61" s="6">
+        <v>70000</v>
+      </c>
       <c r="N61" s="20"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -5841,7 +5866,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C62" s="4">
         <v>19</v>
@@ -5850,10 +5875,10 @@
         <v>55</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>54</v>
@@ -5883,7 +5908,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C63" s="4">
         <v>19</v>
@@ -5892,10 +5917,10 @@
         <v>55</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>53</v>
@@ -5925,7 +5950,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C64" s="4">
         <v>19</v>
@@ -5934,10 +5959,10 @@
         <v>6</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>52</v>
@@ -5967,7 +5992,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C65" s="4">
         <v>19</v>
@@ -5976,10 +6001,10 @@
         <v>6</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>56</v>
@@ -6003,7 +6028,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C66" s="4">
         <v>19</v>
@@ -6012,10 +6037,10 @@
         <v>7</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>53</v>
@@ -6045,7 +6070,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C67" s="58">
         <v>18</v>
@@ -6054,10 +6079,10 @@
         <v>18</v>
       </c>
       <c r="E67" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G67" s="59" t="s">
         <v>53</v>
@@ -6087,7 +6112,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C68" s="58">
         <v>17</v>
@@ -6096,10 +6121,10 @@
         <v>18</v>
       </c>
       <c r="E68" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G68" s="59" t="s">
         <v>57</v>
@@ -6129,7 +6154,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C69" s="58">
         <v>17</v>
@@ -6138,10 +6163,10 @@
         <v>18</v>
       </c>
       <c r="E69" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G69" s="59" t="s">
         <v>58</v>
@@ -6171,7 +6196,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C70" s="58">
         <v>16</v>
@@ -6180,13 +6205,13 @@
         <v>18</v>
       </c>
       <c r="E70" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G70" s="59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H70" s="62">
         <v>1559.07</v>
@@ -6213,7 +6238,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C71" s="58">
         <v>16</v>
@@ -6222,13 +6247,13 @@
         <v>18</v>
       </c>
       <c r="E71" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G71" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H71" s="62">
         <v>1559.07</v>
@@ -6255,7 +6280,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C72" s="58">
         <v>15</v>
@@ -6264,10 +6289,10 @@
         <v>18</v>
       </c>
       <c r="E72" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G72" s="59" t="s">
         <v>59</v>
@@ -6297,7 +6322,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C73" s="58">
         <v>15</v>
@@ -6306,10 +6331,10 @@
         <v>18</v>
       </c>
       <c r="E73" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G73" s="59" t="s">
         <v>60</v>
@@ -6339,7 +6364,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C74" s="58">
         <v>12</v>
@@ -6348,10 +6373,10 @@
         <v>18</v>
       </c>
       <c r="E74" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G74" s="59" t="s">
         <v>52</v>
@@ -6381,7 +6406,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C75" s="58">
         <v>12</v>
@@ -6390,10 +6415,10 @@
         <v>18</v>
       </c>
       <c r="E75" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G75" s="59" t="s">
         <v>56</v>
@@ -6417,7 +6442,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C76" s="58">
         <v>11</v>
@@ -6426,10 +6451,10 @@
         <v>18</v>
       </c>
       <c r="E76" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G76" s="59" t="s">
         <v>52</v>
@@ -6459,7 +6484,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C77" s="58">
         <v>11</v>
@@ -6468,13 +6493,13 @@
         <v>18</v>
       </c>
       <c r="E77" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G77" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H77" s="62">
         <v>1519.21</v>
@@ -6495,7 +6520,7 @@
         <v>70000</v>
       </c>
       <c r="N77" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -6503,7 +6528,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C78" s="58">
         <v>10</v>
@@ -6512,13 +6537,13 @@
         <v>3</v>
       </c>
       <c r="E78" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G78" s="59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H78" s="62">
         <v>287.33999999999997</v>
@@ -6530,7 +6555,7 @@
         <v>44136</v>
       </c>
       <c r="K78" s="71">
-        <v>45350</v>
+        <v>44957</v>
       </c>
       <c r="L78" s="73">
         <v>425000</v>
@@ -6545,7 +6570,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C79" s="58">
         <v>10</v>
@@ -6554,13 +6579,13 @@
         <v>3</v>
       </c>
       <c r="E79" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G79" s="59" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="H79" s="62">
         <v>287.33999999999997</v>
@@ -6569,13 +6594,13 @@
         <v>3</v>
       </c>
       <c r="J79" s="69">
-        <v>45352</v>
+        <v>44958</v>
       </c>
       <c r="K79" s="71">
-        <v>49003</v>
+        <v>48975</v>
       </c>
       <c r="L79" s="73">
-        <v>400000</v>
+        <v>367500</v>
       </c>
       <c r="M79" s="6">
         <v>70000</v>
@@ -6587,7 +6612,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C80" s="58">
         <v>10</v>
@@ -6596,13 +6621,13 @@
         <v>4</v>
       </c>
       <c r="E80" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G80" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H80" s="62">
         <v>135.97999999999999</v>
@@ -6629,7 +6654,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C81" s="58">
         <v>10</v>
@@ -6638,13 +6663,13 @@
         <v>4</v>
       </c>
       <c r="E81" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G81" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H81" s="62">
         <v>135.97999999999999</v>
@@ -6665,7 +6690,7 @@
         <v>70000</v>
       </c>
       <c r="N81" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -6673,7 +6698,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C82" s="58">
         <v>10</v>
@@ -6682,13 +6707,13 @@
         <v>5</v>
       </c>
       <c r="E82" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G82" s="59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H82" s="62">
         <v>135.99</v>
@@ -6713,7 +6738,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C83" s="58">
         <v>10</v>
@@ -6722,10 +6747,10 @@
         <v>6</v>
       </c>
       <c r="E83" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G83" s="59" t="s">
         <v>0</v>
@@ -6753,136 +6778,136 @@
         <v>82</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C84" s="58">
         <v>10</v>
       </c>
       <c r="D84" s="58" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="E84" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G84" s="59" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="H84" s="62">
-        <v>272.08</v>
+        <v>136.03</v>
       </c>
       <c r="I84" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J84" s="69">
-        <v>45108</v>
+        <v>44958</v>
       </c>
       <c r="K84" s="54">
-        <v>49125</v>
+        <v>45688</v>
       </c>
       <c r="L84" s="73">
-        <v>383000</v>
+        <v>425000</v>
       </c>
       <c r="M84" s="6">
         <v>70000</v>
       </c>
       <c r="N84" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="29">
-        <v>83</v>
-      </c>
+      <c r="A85" s="29"/>
       <c r="B85" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C85" s="58">
         <v>10</v>
       </c>
       <c r="D85" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G85" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="H85" s="62">
+        <v>136.05000000000001</v>
+      </c>
+      <c r="I85" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J85" s="69">
+        <v>45108</v>
+      </c>
+      <c r="K85" s="54">
+        <v>49125</v>
+      </c>
+      <c r="L85" s="73">
+        <v>400000</v>
+      </c>
+      <c r="M85" s="6">
+        <v>70000</v>
+      </c>
+      <c r="N85" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="29">
+        <v>83</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="58">
+        <v>10</v>
+      </c>
+      <c r="D86" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G85" s="59" t="s">
+      <c r="E86" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G86" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="H85" s="62">
+      <c r="H86" s="62">
         <v>264.23</v>
       </c>
-      <c r="I85" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J85" s="69">
+      <c r="I86" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J86" s="69">
         <v>43647</v>
       </c>
-      <c r="K85" s="71">
+      <c r="K86" s="71">
         <v>44561</v>
       </c>
-      <c r="L85" s="73">
+      <c r="L86" s="73">
         <f>362500*11.5/12</f>
         <v>347395.83333333331</v>
       </c>
-      <c r="M85" s="6">
+      <c r="M86" s="6">
         <v>84100</v>
-      </c>
-      <c r="N85" s="20"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="29">
-        <v>84</v>
-      </c>
-      <c r="B86" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C86" s="58">
-        <v>10</v>
-      </c>
-      <c r="D86" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G86" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="H86" s="62">
-        <v>264.23</v>
-      </c>
-      <c r="I86" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J86" s="69">
-        <v>44835</v>
-      </c>
-      <c r="K86" s="71">
-        <v>44926</v>
-      </c>
-      <c r="L86" s="73">
-        <v>367500</v>
-      </c>
-      <c r="M86" s="6">
-        <v>70000</v>
       </c>
       <c r="N86" s="20"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="29">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C87" s="58">
         <v>10</v>
@@ -6891,13 +6916,13 @@
         <v>9</v>
       </c>
       <c r="E87" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G87" s="59" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="H87" s="62">
         <v>264.23</v>
@@ -6906,10 +6931,10 @@
         <v>3</v>
       </c>
       <c r="J87" s="69">
-        <v>44927</v>
+        <v>44835</v>
       </c>
       <c r="K87" s="71">
-        <v>49309</v>
+        <v>44926</v>
       </c>
       <c r="L87" s="73">
         <v>367500</v>
@@ -6917,71 +6942,73 @@
       <c r="M87" s="6">
         <v>70000</v>
       </c>
-      <c r="N87" s="20" t="s">
-        <v>186</v>
-      </c>
+      <c r="N87" s="20"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="29">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" s="58">
+        <v>10</v>
+      </c>
+      <c r="D88" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G88" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="58">
-        <v>9</v>
-      </c>
-      <c r="D88" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="E88" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G88" s="59" t="s">
-        <v>68</v>
-      </c>
       <c r="H88" s="62">
-        <v>1234.75</v>
+        <v>264.23</v>
       </c>
       <c r="I88" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J88" s="69"/>
+      <c r="J88" s="69">
+        <v>44927</v>
+      </c>
       <c r="K88" s="71">
-        <v>44895</v>
+        <v>49309</v>
       </c>
       <c r="L88" s="73">
-        <v>390000</v>
+        <v>367500</v>
       </c>
       <c r="M88" s="6">
         <v>70000</v>
       </c>
-      <c r="N88" s="20"/>
+      <c r="N88" s="20" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="29">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C89" s="58">
         <v>9</v>
       </c>
       <c r="D89" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E89" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G89" s="59" t="s">
         <v>67</v>
-      </c>
-      <c r="E89" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G89" s="59" t="s">
-        <v>176</v>
       </c>
       <c r="H89" s="62">
         <v>1234.75</v>
@@ -6989,14 +7016,12 @@
       <c r="I89" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J89" s="69">
-        <v>45200</v>
-      </c>
+      <c r="J89" s="69"/>
       <c r="K89" s="71">
-        <v>49308</v>
+        <v>44895</v>
       </c>
       <c r="L89" s="73">
-        <v>367500</v>
+        <v>390000</v>
       </c>
       <c r="M89" s="6">
         <v>70000</v>
@@ -7005,40 +7030,40 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="29">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C90" s="58">
         <v>9</v>
       </c>
       <c r="D90" s="58" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="E90" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="G90" s="59" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="H90" s="62">
-        <v>137.51</v>
+        <v>1234.75</v>
       </c>
       <c r="I90" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J90" s="69">
-        <v>44287</v>
+        <v>45200</v>
       </c>
       <c r="K90" s="71">
-        <v>45016</v>
+        <v>49308</v>
       </c>
       <c r="L90" s="73">
-        <v>0</v>
+        <v>367500</v>
       </c>
       <c r="M90" s="6">
         <v>70000</v>
@@ -7047,10 +7072,10 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="29">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C91" s="58">
         <v>9</v>
@@ -7059,13 +7084,13 @@
         <v>4</v>
       </c>
       <c r="E91" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G91" s="59" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="H91" s="62">
         <v>137.51</v>
@@ -7074,69 +7099,69 @@
         <v>3</v>
       </c>
       <c r="J91" s="69">
-        <v>45017</v>
+        <v>44287</v>
       </c>
       <c r="K91" s="71">
-        <v>49034</v>
+        <v>45016</v>
       </c>
       <c r="L91" s="73">
-        <v>410000</v>
+        <v>0</v>
       </c>
       <c r="M91" s="6">
         <v>70000</v>
       </c>
-      <c r="N91" s="20" t="s">
-        <v>186</v>
-      </c>
+      <c r="N91" s="20"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="29">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C92" s="58">
         <v>9</v>
       </c>
       <c r="D92" s="58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E92" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G92" s="59" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="H92" s="62">
-        <v>137.52000000000001</v>
+        <v>137.51</v>
       </c>
       <c r="I92" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J92" s="69">
-        <v>43717</v>
+        <v>45017</v>
       </c>
       <c r="K92" s="71">
-        <v>45565</v>
+        <v>49034</v>
       </c>
       <c r="L92" s="73">
-        <v>0</v>
+        <v>410000</v>
       </c>
       <c r="M92" s="6">
         <v>70000</v>
       </c>
-      <c r="N92" s="20"/>
+      <c r="N92" s="20" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="29">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C93" s="58">
         <v>9</v>
@@ -7145,13 +7170,13 @@
         <v>5</v>
       </c>
       <c r="E93" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G93" s="59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H93" s="62">
         <v>137.52000000000001</v>
@@ -7160,10 +7185,10 @@
         <v>3</v>
       </c>
       <c r="J93" s="69">
-        <v>45566</v>
+        <v>43717</v>
       </c>
       <c r="K93" s="71">
-        <v>49217</v>
+        <v>45565</v>
       </c>
       <c r="L93" s="73">
         <v>0</v>
@@ -7171,84 +7196,84 @@
       <c r="M93" s="6">
         <v>70000</v>
       </c>
-      <c r="N93" s="20" t="s">
-        <v>186</v>
-      </c>
+      <c r="N93" s="20"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="29">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C94" s="58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="58" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E94" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="G94" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="H94" s="63">
-        <v>1693.35</v>
+        <v>65</v>
+      </c>
+      <c r="H94" s="62">
+        <v>137.52000000000001</v>
       </c>
       <c r="I94" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="78">
-        <v>43922</v>
-      </c>
-      <c r="K94" s="78">
-        <v>49309</v>
+      <c r="J94" s="69">
+        <v>45566</v>
+      </c>
+      <c r="K94" s="71">
+        <v>49217</v>
       </c>
       <c r="L94" s="73">
-        <v>367500</v>
+        <v>0</v>
       </c>
       <c r="M94" s="6">
         <v>70000</v>
       </c>
-      <c r="N94" s="20"/>
+      <c r="N94" s="20" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="29">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C95" s="58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D95" s="58" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E95" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G95" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="H95" s="62">
-        <v>785.01</v>
+      <c r="H95" s="63">
+        <v>1693.35</v>
       </c>
       <c r="I95" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J95" s="69">
+      <c r="J95" s="78">
         <v>43922</v>
       </c>
-      <c r="K95" s="71">
+      <c r="K95" s="78">
         <v>49309</v>
       </c>
       <c r="L95" s="73">
@@ -7261,34 +7286,34 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="29">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C96" s="58">
         <v>7</v>
       </c>
       <c r="D96" s="58" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E96" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G96" s="59" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="H96" s="62">
-        <v>705.53</v>
+        <v>785.01</v>
       </c>
       <c r="I96" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J96" s="69">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="K96" s="71">
         <v>49309</v>
@@ -7303,38 +7328,40 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="29">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C97" s="58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D97" s="58" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E97" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="G97" s="59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H97" s="62">
-        <v>547</v>
+        <v>705.53</v>
       </c>
       <c r="I97" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J97" s="69"/>
+      <c r="J97" s="69">
+        <v>43556</v>
+      </c>
       <c r="K97" s="71">
-        <v>45961</v>
+        <v>49309</v>
       </c>
       <c r="L97" s="73">
-        <v>410000</v>
+        <v>367500</v>
       </c>
       <c r="M97" s="6">
         <v>70000</v>
@@ -7343,10 +7370,10 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="29">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C98" s="58">
         <v>6</v>
@@ -7355,28 +7382,26 @@
         <v>35</v>
       </c>
       <c r="E98" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>71</v>
+        <v>181</v>
+      </c>
+      <c r="G98" s="59" t="s">
+        <v>69</v>
       </c>
       <c r="H98" s="62">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I98" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J98" s="69">
-        <v>45962</v>
-      </c>
+      <c r="J98" s="69"/>
       <c r="K98" s="71">
-        <v>49248</v>
+        <v>45961</v>
       </c>
       <c r="L98" s="73">
-        <v>390000</v>
+        <v>410000</v>
       </c>
       <c r="M98" s="6">
         <v>70000</v>
@@ -7385,38 +7410,40 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="29">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C99" s="58">
         <v>6</v>
       </c>
       <c r="D99" s="58" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="E99" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G99" s="59" t="s">
-        <v>73</v>
+        <v>181</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="H99" s="62">
-        <v>938.59</v>
+        <v>548</v>
       </c>
       <c r="I99" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J99" s="69"/>
+      <c r="J99" s="69">
+        <v>45962</v>
+      </c>
       <c r="K99" s="71">
-        <v>45961</v>
+        <v>49248</v>
       </c>
       <c r="L99" s="73">
-        <v>410000</v>
+        <v>390000</v>
       </c>
       <c r="M99" s="6">
         <v>70000</v>
@@ -7425,40 +7452,38 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="29">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C100" s="58">
         <v>6</v>
       </c>
       <c r="D100" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E100" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G100" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="E100" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G100" s="59" t="s">
-        <v>74</v>
-      </c>
       <c r="H100" s="62">
-        <v>939.59</v>
+        <v>938.59</v>
       </c>
       <c r="I100" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="69">
-        <v>45962</v>
-      </c>
+      <c r="J100" s="69"/>
       <c r="K100" s="71">
-        <v>49248</v>
+        <v>45961</v>
       </c>
       <c r="L100" s="73">
-        <v>390000</v>
+        <v>410000</v>
       </c>
       <c r="M100" s="6">
         <v>70000</v>
@@ -7467,38 +7492,40 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="29">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C101" s="58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D101" s="58" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E101" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G101" s="59" t="s">
         <v>73</v>
       </c>
       <c r="H101" s="62">
-        <v>1505.1</v>
+        <v>939.59</v>
       </c>
       <c r="I101" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="69"/>
+      <c r="J101" s="69">
+        <v>45962</v>
+      </c>
       <c r="K101" s="71">
-        <v>45961</v>
+        <v>49248</v>
       </c>
       <c r="L101" s="73">
-        <v>410000</v>
+        <v>390000</v>
       </c>
       <c r="M101" s="6">
         <v>70000</v>
@@ -7507,10 +7534,10 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="29">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C102" s="58">
         <v>5</v>
@@ -7519,28 +7546,26 @@
         <v>18</v>
       </c>
       <c r="E102" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G102" s="59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H102" s="62">
-        <v>1506.1</v>
+        <v>1505.1</v>
       </c>
       <c r="I102" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="69">
-        <v>45962</v>
-      </c>
+      <c r="J102" s="69"/>
       <c r="K102" s="71">
-        <v>49248</v>
+        <v>45961</v>
       </c>
       <c r="L102" s="73">
-        <v>390000</v>
+        <v>410000</v>
       </c>
       <c r="M102" s="6">
         <v>70000</v>
@@ -7549,146 +7574,152 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="29">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C103" s="58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D103" s="58" t="s">
         <v>18</v>
       </c>
       <c r="E103" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G103" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="H103" s="79">
-        <v>1422.37</v>
+        <v>73</v>
+      </c>
+      <c r="H103" s="62">
+        <v>1506.1</v>
       </c>
       <c r="I103" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J103" s="80"/>
+      <c r="J103" s="69">
+        <v>45962</v>
+      </c>
       <c r="K103" s="71">
-        <v>49034</v>
-      </c>
-      <c r="L103" s="81">
-        <v>0</v>
-      </c>
-      <c r="M103" s="46">
-        <v>0</v>
+        <v>49248</v>
+      </c>
+      <c r="L103" s="73">
+        <v>390000</v>
+      </c>
+      <c r="M103" s="6">
+        <v>70000</v>
       </c>
       <c r="N103" s="20"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="29">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C104" s="50">
-        <v>2</v>
-      </c>
-      <c r="D104" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>16</v>
+        <v>174</v>
+      </c>
+      <c r="C104" s="58">
+        <v>3</v>
+      </c>
+      <c r="D104" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="57" t="s">
+        <v>172</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G104" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="H104" s="10">
-        <v>399</v>
-      </c>
-      <c r="I104" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J104" s="12">
-        <v>44562</v>
-      </c>
-      <c r="K104" s="12">
-        <v>46599</v>
-      </c>
-      <c r="L104" s="13">
-        <v>70000</v>
-      </c>
-      <c r="M104" s="14">
-        <v>50000</v>
+        <v>181</v>
+      </c>
+      <c r="G104" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="H104" s="79">
+        <v>1422.37</v>
+      </c>
+      <c r="I104" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J104" s="80"/>
+      <c r="K104" s="71">
+        <v>49034</v>
+      </c>
+      <c r="L104" s="81">
+        <v>0</v>
+      </c>
+      <c r="M104" s="46">
+        <v>0</v>
       </c>
       <c r="N104" s="20"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="29">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C105" s="50">
         <v>2</v>
       </c>
       <c r="D105" s="50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G105" s="52" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="H105" s="10">
-        <v>145.78</v>
+        <v>399</v>
       </c>
       <c r="I105" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J105" s="12"/>
+      <c r="J105" s="12">
+        <v>44562</v>
+      </c>
       <c r="K105" s="12">
         <v>46599</v>
       </c>
-      <c r="L105" s="13"/>
-      <c r="M105" s="14"/>
+      <c r="L105" s="13">
+        <v>70000</v>
+      </c>
+      <c r="M105" s="14">
+        <v>50000</v>
+      </c>
       <c r="N105" s="20"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="29">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C106" s="50">
         <v>2</v>
       </c>
       <c r="D106" s="50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G106" s="52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H106" s="10">
-        <v>25.1</v>
+        <v>145.78</v>
       </c>
       <c r="I106" s="23" t="s">
         <v>3</v>
@@ -7703,112 +7734,106 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="29">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C107" s="55">
+        <v>174</v>
+      </c>
+      <c r="C107" s="50">
         <v>2</v>
       </c>
-      <c r="D107" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E107" s="48" t="s">
+      <c r="D107" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G107" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="H107" s="56">
-        <v>230.81</v>
-      </c>
-      <c r="I107" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="J107" s="37">
-        <v>44562</v>
-      </c>
-      <c r="K107" s="37">
+        <v>181</v>
+      </c>
+      <c r="G107" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="H107" s="10">
+        <v>25.1</v>
+      </c>
+      <c r="I107" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12">
         <v>46599</v>
       </c>
-      <c r="L107" s="14">
-        <v>70000</v>
-      </c>
-      <c r="M107" s="14">
-        <v>50000</v>
-      </c>
+      <c r="L107" s="13"/>
+      <c r="M107" s="14"/>
       <c r="N107" s="20"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="29">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C108" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="D108" s="48" t="s">
-        <v>18</v>
+        <v>174</v>
+      </c>
+      <c r="C108" s="55">
+        <v>2</v>
+      </c>
+      <c r="D108" s="55" t="s">
+        <v>6</v>
       </c>
       <c r="E108" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G108" s="51" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="H108" s="56">
-        <v>249.77</v>
+        <v>230.81</v>
       </c>
       <c r="I108" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J108" s="70">
-        <v>44378</v>
+      <c r="J108" s="37">
+        <v>44562</v>
       </c>
       <c r="K108" s="37">
-        <v>46752</v>
-      </c>
-      <c r="L108" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="M108" s="14" t="s">
-        <v>84</v>
+        <v>46599</v>
+      </c>
+      <c r="L108" s="14">
+        <v>70000</v>
+      </c>
+      <c r="M108" s="14">
+        <v>50000</v>
       </c>
       <c r="N108" s="20"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="29">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C109" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="D109" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C109" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="D109" s="48" t="s">
         <v>18</v>
       </c>
       <c r="E109" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G109" s="60" t="s">
-        <v>162</v>
+        <v>181</v>
+      </c>
+      <c r="G109" s="51" t="s">
+        <v>161</v>
       </c>
       <c r="H109" s="56">
-        <v>63.5</v>
+        <v>249.77</v>
       </c>
       <c r="I109" s="66" t="s">
         <v>3</v>
@@ -7820,142 +7845,142 @@
         <v>46752</v>
       </c>
       <c r="L109" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M109" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N109" s="20"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="29">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C110" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D110" s="48" t="s">
-        <v>141</v>
+        <v>174</v>
+      </c>
+      <c r="C110" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="D110" s="55" t="s">
+        <v>18</v>
       </c>
       <c r="E110" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G110" s="51" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="G110" s="60" t="s">
+        <v>161</v>
       </c>
       <c r="H110" s="56">
-        <v>6</v>
+        <v>63.5</v>
       </c>
       <c r="I110" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="J110" s="37">
-        <v>44470</v>
+        <v>3</v>
+      </c>
+      <c r="J110" s="70">
+        <v>44378</v>
       </c>
       <c r="K110" s="37">
-        <v>46660</v>
-      </c>
-      <c r="L110" s="14">
-        <v>950000</v>
-      </c>
-      <c r="M110" s="15">
-        <v>72000</v>
+        <v>46752</v>
+      </c>
+      <c r="L110" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="M110" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="N110" s="20"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="29">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C111" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D111" s="48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E111" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F111" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G111" s="51" t="s">
         <v>182</v>
-      </c>
-      <c r="G111" s="51" t="s">
-        <v>169</v>
       </c>
       <c r="H111" s="56">
         <v>6</v>
       </c>
       <c r="I111" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="J111" s="37"/>
+        <v>170</v>
+      </c>
+      <c r="J111" s="37">
+        <v>44470</v>
+      </c>
       <c r="K111" s="37">
-        <v>46752</v>
-      </c>
-      <c r="L111" s="14"/>
-      <c r="M111" s="15"/>
+        <v>46660</v>
+      </c>
+      <c r="L111" s="14">
+        <v>950000</v>
+      </c>
+      <c r="M111" s="15">
+        <v>72000</v>
+      </c>
       <c r="N111" s="20"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="29">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C112" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D112" s="48" t="s">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="E112" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G112" s="51" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="H112" s="56">
-        <v>185</v>
+        <v>6</v>
       </c>
       <c r="I112" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="J112" s="37">
-        <v>43419</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="J112" s="37"/>
       <c r="K112" s="37">
-        <v>44514</v>
-      </c>
-      <c r="L112" s="14">
-        <v>200000</v>
-      </c>
-      <c r="M112" s="14">
-        <v>65000</v>
-      </c>
+        <v>46752</v>
+      </c>
+      <c r="L112" s="14"/>
+      <c r="M112" s="15"/>
       <c r="N112" s="20"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="29">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C113" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D113" s="48" t="s">
         <v>3</v>
@@ -7964,10 +7989,10 @@
         <v>16</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G113" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H113" s="56">
         <v>185</v>
@@ -7976,13 +8001,13 @@
         <v>3</v>
       </c>
       <c r="J113" s="37">
-        <v>44515</v>
+        <v>43419</v>
       </c>
       <c r="K113" s="37">
-        <v>45244</v>
+        <v>44514</v>
       </c>
       <c r="L113" s="14">
-        <v>225000</v>
+        <v>200000</v>
       </c>
       <c r="M113" s="14">
         <v>65000</v>
@@ -7991,13 +8016,13 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="29">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C114" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D114" s="48" t="s">
         <v>3</v>
@@ -8006,10 +8031,10 @@
         <v>16</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G114" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H114" s="56">
         <v>185</v>
@@ -8018,10 +8043,10 @@
         <v>3</v>
       </c>
       <c r="J114" s="37">
-        <v>45245</v>
+        <v>44515</v>
       </c>
       <c r="K114" s="37">
-        <v>46705</v>
+        <v>45244</v>
       </c>
       <c r="L114" s="14">
         <v>225000</v>
@@ -8033,97 +8058,97 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="29">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C115" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D115" s="48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E115" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G115" s="51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H115" s="56">
-        <v>347.88</v>
+        <v>185</v>
       </c>
       <c r="I115" s="66" t="s">
         <v>3</v>
       </c>
       <c r="J115" s="37">
-        <v>43891</v>
+        <v>45245</v>
       </c>
       <c r="K115" s="37">
-        <v>46446</v>
-      </c>
-      <c r="L115" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="M115" s="14" t="s">
-        <v>84</v>
+        <v>46705</v>
+      </c>
+      <c r="L115" s="14">
+        <v>225000</v>
+      </c>
+      <c r="M115" s="14">
+        <v>65000</v>
       </c>
       <c r="N115" s="20"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="29">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C116" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D116" s="48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E116" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G116" s="51" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H116" s="56">
-        <v>103.16</v>
+        <v>347.88</v>
       </c>
       <c r="I116" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J116" s="45">
-        <v>43692</v>
+      <c r="J116" s="37">
+        <v>43891</v>
       </c>
       <c r="K116" s="37">
-        <v>46613</v>
-      </c>
-      <c r="L116" s="14">
-        <v>331250</v>
-      </c>
-      <c r="M116" s="14">
-        <v>70000</v>
+        <v>46446</v>
+      </c>
+      <c r="L116" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="M116" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="N116" s="20"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="29">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C117" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D117" s="48" t="s">
         <v>5</v>
@@ -8132,13 +8157,13 @@
         <v>16</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G117" s="51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H117" s="56">
-        <v>30</v>
+        <v>103.16</v>
       </c>
       <c r="I117" s="66" t="s">
         <v>3</v>
@@ -8150,98 +8175,98 @@
         <v>46613</v>
       </c>
       <c r="L117" s="14">
-        <v>231875</v>
+        <v>331250</v>
       </c>
       <c r="M117" s="14">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="N117" s="20"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="29">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C118" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D118" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E118" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G118" s="51" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="H118" s="56">
-        <v>82.74</v>
+        <v>30</v>
       </c>
       <c r="I118" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J118" s="37"/>
-      <c r="K118" s="37"/>
-      <c r="L118" s="14"/>
-      <c r="M118" s="14"/>
+      <c r="J118" s="45">
+        <v>43692</v>
+      </c>
+      <c r="K118" s="37">
+        <v>46613</v>
+      </c>
+      <c r="L118" s="14">
+        <v>231875</v>
+      </c>
+      <c r="M118" s="14">
+        <v>80000</v>
+      </c>
       <c r="N118" s="20"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="29">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C119" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D119" s="48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E119" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G119" s="51" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="H119" s="56">
-        <v>152.08000000000001</v>
+        <v>82.74</v>
       </c>
       <c r="I119" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J119" s="37">
-        <v>44044</v>
-      </c>
-      <c r="K119" s="37">
-        <v>46599</v>
-      </c>
-      <c r="L119" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="M119" s="14">
-        <v>50000</v>
-      </c>
+      <c r="J119" s="37"/>
+      <c r="K119" s="37"/>
+      <c r="L119" s="14"/>
+      <c r="M119" s="14"/>
       <c r="N119" s="20"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="29">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C120" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D120" s="48" t="s">
         <v>7</v>
@@ -8250,13 +8275,13 @@
         <v>16</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G120" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H120" s="56">
-        <v>36.880000000000003</v>
+        <v>152.08000000000001</v>
       </c>
       <c r="I120" s="66" t="s">
         <v>3</v>
@@ -8268,22 +8293,22 @@
         <v>46599</v>
       </c>
       <c r="L120" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M120" s="14">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="N120" s="20"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="29">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C121" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D121" s="48" t="s">
         <v>7</v>
@@ -8292,13 +8317,13 @@
         <v>16</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G121" s="51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H121" s="56">
-        <v>30.88</v>
+        <v>36.880000000000003</v>
       </c>
       <c r="I121" s="66" t="s">
         <v>3</v>
@@ -8310,7 +8335,7 @@
         <v>46599</v>
       </c>
       <c r="L121" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M121" s="14">
         <v>70000</v>
@@ -8319,40 +8344,40 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="29">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C122" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D122" s="48" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="E122" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G122" s="51" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="H122" s="56">
-        <v>28.21</v>
+        <v>30.88</v>
       </c>
       <c r="I122" s="66" t="s">
         <v>3</v>
       </c>
       <c r="J122" s="37">
-        <v>43891</v>
+        <v>44044</v>
       </c>
       <c r="K122" s="37">
-        <v>46446</v>
-      </c>
-      <c r="L122" s="14">
-        <v>240000</v>
+        <v>46599</v>
+      </c>
+      <c r="L122" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="M122" s="14">
         <v>70000</v>
@@ -8361,25 +8386,25 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="29">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C123" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D123" s="48" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="E123" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G123" s="51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H123" s="56">
         <v>28.21</v>
@@ -8387,96 +8412,98 @@
       <c r="I123" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J123" s="37"/>
+      <c r="J123" s="37">
+        <v>43891</v>
+      </c>
       <c r="K123" s="37">
-        <v>46752</v>
-      </c>
-      <c r="L123" s="14"/>
-      <c r="M123" s="14"/>
+        <v>46446</v>
+      </c>
+      <c r="L123" s="14">
+        <v>240000</v>
+      </c>
+      <c r="M123" s="14">
+        <v>70000</v>
+      </c>
       <c r="N123" s="20"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="29">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E124" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C124" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D124" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G124" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="H124" s="10">
-        <v>80.92</v>
-      </c>
-      <c r="I124" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J124" s="12"/>
-      <c r="K124" s="12">
+        <v>181</v>
+      </c>
+      <c r="G124" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="H124" s="56">
+        <v>28.21</v>
+      </c>
+      <c r="I124" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="J124" s="37"/>
+      <c r="K124" s="37">
         <v>46752</v>
       </c>
-      <c r="L124" s="13"/>
+      <c r="L124" s="14"/>
       <c r="M124" s="14"/>
       <c r="N124" s="20"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="29">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C125" s="58">
-        <v>1</v>
-      </c>
-      <c r="D125" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E125" s="57" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G125" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="H125" s="62">
-        <v>639.83000000000004</v>
-      </c>
-      <c r="I125" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J125" s="69"/>
-      <c r="K125" s="71">
-        <v>49064</v>
-      </c>
-      <c r="L125" s="73">
-        <v>420000</v>
-      </c>
-      <c r="M125" s="6">
-        <v>70000</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H125" s="10">
+        <v>80.92</v>
+      </c>
+      <c r="I125" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12">
+        <v>46752</v>
+      </c>
+      <c r="L125" s="13"/>
+      <c r="M125" s="14"/>
       <c r="N125" s="20"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="29">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C126" s="58">
         <v>1</v>
@@ -8485,26 +8512,26 @@
         <v>18</v>
       </c>
       <c r="E126" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G126" s="59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H126" s="62">
-        <v>70</v>
+        <v>639.83000000000004</v>
       </c>
       <c r="I126" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J126" s="69"/>
       <c r="K126" s="71">
-        <v>49034</v>
+        <v>49064</v>
       </c>
       <c r="L126" s="73">
-        <v>435000</v>
+        <v>420000</v>
       </c>
       <c r="M126" s="6">
         <v>70000</v>
@@ -8513,38 +8540,38 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="29">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C127" s="4">
+        <v>174</v>
+      </c>
+      <c r="C127" s="58">
         <v>1</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D127" s="58" t="s">
         <v>18</v>
       </c>
       <c r="E127" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H127" s="8">
-        <v>134.37</v>
+        <v>181</v>
+      </c>
+      <c r="G127" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="H127" s="62">
+        <v>70</v>
       </c>
       <c r="I127" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J127" s="7"/>
-      <c r="K127" s="5">
-        <v>49187</v>
-      </c>
-      <c r="L127" s="84">
-        <v>390000</v>
+      <c r="J127" s="69"/>
+      <c r="K127" s="71">
+        <v>49034</v>
+      </c>
+      <c r="L127" s="73">
+        <v>435000</v>
       </c>
       <c r="M127" s="6">
         <v>70000</v>
@@ -8553,10 +8580,10 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="29">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C128" s="4">
         <v>1</v>
@@ -8564,29 +8591,27 @@
       <c r="D128" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>173</v>
+      <c r="E128" s="57" t="s">
+        <v>172</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H128" s="8">
-        <v>453.65</v>
-      </c>
-      <c r="I128" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J128" s="7">
-        <v>42948</v>
-      </c>
+        <v>134.37</v>
+      </c>
+      <c r="I128" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J128" s="7"/>
       <c r="K128" s="5">
-        <v>49156</v>
-      </c>
-      <c r="L128" s="6">
-        <v>405000</v>
+        <v>49187</v>
+      </c>
+      <c r="L128" s="84">
+        <v>390000</v>
       </c>
       <c r="M128" s="6">
         <v>70000</v>
@@ -8595,119 +8620,121 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="29">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C129" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D129" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="E129" s="48" t="s">
-        <v>16</v>
+        <v>174</v>
+      </c>
+      <c r="C129" s="4">
+        <v>1</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G129" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="H129" s="56">
-        <v>7.4</v>
-      </c>
-      <c r="I129" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="J129" s="37">
-        <v>44488</v>
-      </c>
-      <c r="K129" s="37">
-        <v>46460</v>
-      </c>
-      <c r="L129" s="14">
-        <v>5000000</v>
-      </c>
-      <c r="M129" s="14" t="s">
-        <v>84</v>
+        <v>181</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H129" s="8">
+        <v>453.65</v>
+      </c>
+      <c r="I129" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J129" s="7">
+        <v>42948</v>
+      </c>
+      <c r="K129" s="5">
+        <v>49156</v>
+      </c>
+      <c r="L129" s="6">
+        <v>405000</v>
+      </c>
+      <c r="M129" s="6">
+        <v>70000</v>
       </c>
       <c r="N129" s="20"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="29">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C130" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D130" s="48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E130" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G130" s="51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H130" s="56">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="I130" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J130" s="37">
-        <v>44150</v>
+        <v>44488</v>
       </c>
       <c r="K130" s="37">
-        <v>46705</v>
+        <v>46460</v>
       </c>
       <c r="L130" s="14">
         <v>5000000</v>
       </c>
-      <c r="M130" s="15"/>
+      <c r="M130" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="N130" s="20"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="29">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C131" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D131" s="48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E131" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G131" s="51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H131" s="56">
         <v>7.9</v>
       </c>
       <c r="I131" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J131" s="37">
-        <v>44256</v>
+        <v>44150</v>
       </c>
       <c r="K131" s="37">
-        <v>46446</v>
+        <v>46705</v>
       </c>
       <c r="L131" s="14">
         <v>5000000</v>
@@ -8717,155 +8744,155 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="29">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C132" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E132" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C132" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="D132" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="E132" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H132" s="10">
-        <v>7.6</v>
-      </c>
-      <c r="I132" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="J132" s="12">
-        <v>44440</v>
-      </c>
-      <c r="K132" s="12">
-        <v>46630</v>
-      </c>
-      <c r="L132" s="13">
+        <v>181</v>
+      </c>
+      <c r="G132" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="H132" s="56">
+        <v>7.9</v>
+      </c>
+      <c r="I132" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="J132" s="37">
+        <v>44256</v>
+      </c>
+      <c r="K132" s="37">
+        <v>46446</v>
+      </c>
+      <c r="L132" s="14">
         <v>5000000</v>
       </c>
-      <c r="M132" s="14" t="s">
-        <v>84</v>
-      </c>
+      <c r="M132" s="15"/>
       <c r="N132" s="20"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="29">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C133" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D133" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="E133" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C133" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E133" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G133" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="H133" s="56">
-        <v>6.9</v>
-      </c>
-      <c r="I133" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="J133" s="37">
-        <v>44301</v>
-      </c>
-      <c r="K133" s="37">
-        <v>46491</v>
-      </c>
-      <c r="L133" s="14">
+        <v>181</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H133" s="10">
+        <v>7.6</v>
+      </c>
+      <c r="I133" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="J133" s="12">
+        <v>44440</v>
+      </c>
+      <c r="K133" s="12">
+        <v>46630</v>
+      </c>
+      <c r="L133" s="13">
         <v>5000000</v>
       </c>
       <c r="M133" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N133" s="20"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="29">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B134" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C134" s="48" t="s">
-        <v>89</v>
+        <v>174</v>
+      </c>
+      <c r="C134" s="55" t="s">
+        <v>88</v>
       </c>
       <c r="D134" s="48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E134" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G134" s="51" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="H134" s="56">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="I134" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J134" s="37">
-        <v>44256</v>
+        <v>44301</v>
       </c>
       <c r="K134" s="37">
-        <v>46446</v>
+        <v>46491</v>
       </c>
       <c r="L134" s="14">
         <v>5000000</v>
       </c>
-      <c r="M134" s="15"/>
+      <c r="M134" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="N134" s="20"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="29">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C135" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D135" s="48" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E135" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G135" s="51" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="H135" s="56">
         <v>7.9</v>
       </c>
       <c r="I135" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J135" s="37">
         <v>44256</v>
@@ -8881,161 +8908,161 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="29">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C136" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D136" s="48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E136" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G136" s="51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H136" s="56">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="I136" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J136" s="37">
-        <v>43661</v>
+        <v>44256</v>
       </c>
       <c r="K136" s="37">
-        <v>46582</v>
+        <v>46446</v>
       </c>
       <c r="L136" s="14">
         <v>5000000</v>
       </c>
-      <c r="M136" s="14" t="s">
-        <v>84</v>
-      </c>
+      <c r="M136" s="15"/>
       <c r="N136" s="20"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="29">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B137" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C137" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D137" s="48" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E137" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G137" s="51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H137" s="56">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="I137" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J137" s="37">
-        <v>44105</v>
+        <v>43661</v>
       </c>
       <c r="K137" s="37">
-        <v>46660</v>
+        <v>46582</v>
       </c>
       <c r="L137" s="14">
         <v>5000000</v>
       </c>
       <c r="M137" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N137" s="20"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="29">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B138" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C138" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D138" s="48" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E138" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G138" s="51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H138" s="56">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="I138" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J138" s="37">
-        <v>44175</v>
+        <v>44105</v>
       </c>
       <c r="K138" s="37">
-        <v>46730</v>
+        <v>46660</v>
       </c>
       <c r="L138" s="14">
         <v>5000000</v>
       </c>
-      <c r="M138" s="15"/>
+      <c r="M138" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="N138" s="20"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="29">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B139" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C139" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D139" s="48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E139" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G139" s="51" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="H139" s="56">
         <v>6.4</v>
       </c>
       <c r="I139" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J139" s="37">
-        <v>44256</v>
+        <v>44175</v>
       </c>
       <c r="K139" s="37">
-        <v>46446</v>
+        <v>46730</v>
       </c>
       <c r="L139" s="14">
         <v>5000000</v>
@@ -9045,277 +9072,277 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="29">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C140" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D140" s="48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E140" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G140" s="51" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="H140" s="56">
         <v>6.4</v>
       </c>
       <c r="I140" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J140" s="37">
-        <v>44013</v>
+        <v>44256</v>
       </c>
       <c r="K140" s="37">
-        <v>46568</v>
+        <v>46446</v>
       </c>
       <c r="L140" s="14">
         <v>5000000</v>
       </c>
-      <c r="M140" s="14" t="s">
-        <v>84</v>
-      </c>
+      <c r="M140" s="15"/>
       <c r="N140" s="20"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="29">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C141" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D141" s="48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E141" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G141" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="H141" s="65">
-        <v>16.350000000000001</v>
+        <v>98</v>
+      </c>
+      <c r="H141" s="56">
+        <v>6.4</v>
       </c>
       <c r="I141" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J141" s="37">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="K141" s="37">
-        <v>46538</v>
+        <v>46568</v>
       </c>
       <c r="L141" s="14">
-        <v>4200000</v>
+        <v>5000000</v>
       </c>
       <c r="M141" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N141" s="20"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="29">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C142" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D142" s="48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E142" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G142" s="51" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="H142" s="65">
-        <v>8.11</v>
-      </c>
-      <c r="I142" s="66"/>
-      <c r="J142" s="37"/>
-      <c r="K142" s="37"/>
-      <c r="L142" s="14"/>
+        <v>16.350000000000001</v>
+      </c>
+      <c r="I142" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="J142" s="37">
+        <v>43983</v>
+      </c>
+      <c r="K142" s="37">
+        <v>46538</v>
+      </c>
+      <c r="L142" s="14">
+        <v>4200000</v>
+      </c>
       <c r="M142" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N142" s="20"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="29">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C143" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D143" s="48" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E143" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G143" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="H143" s="56">
-        <v>15.73</v>
-      </c>
-      <c r="I143" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="J143" s="37">
-        <v>43617</v>
-      </c>
-      <c r="K143" s="37">
-        <v>46538</v>
-      </c>
-      <c r="L143" s="14">
-        <v>5000000</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H143" s="65">
+        <v>8.11</v>
+      </c>
+      <c r="I143" s="66"/>
+      <c r="J143" s="37"/>
+      <c r="K143" s="37"/>
+      <c r="L143" s="14"/>
       <c r="M143" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N143" s="20"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="29">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C144" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D144" s="48" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E144" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G144" s="51" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="H144" s="56">
-        <v>97.5</v>
+        <v>15.73</v>
       </c>
       <c r="I144" s="66" t="s">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="J144" s="37">
-        <v>43922</v>
+        <v>43617</v>
       </c>
       <c r="K144" s="37">
-        <v>46477</v>
+        <v>46538</v>
       </c>
       <c r="L144" s="14">
-        <v>360000</v>
-      </c>
-      <c r="M144" s="15"/>
+        <v>5000000</v>
+      </c>
+      <c r="M144" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="N144" s="20"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="29">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C145" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="D145" s="55" t="s">
-        <v>159</v>
+        <v>88</v>
+      </c>
+      <c r="D145" s="48" t="s">
+        <v>156</v>
       </c>
       <c r="E145" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G145" s="51" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="H145" s="56">
-        <v>9</v>
+        <v>97.5</v>
       </c>
       <c r="I145" s="66" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="J145" s="37">
-        <v>44150</v>
+        <v>43922</v>
       </c>
       <c r="K145" s="37">
-        <v>46705</v>
+        <v>46477</v>
       </c>
       <c r="L145" s="14">
-        <v>3000000</v>
-      </c>
-      <c r="M145" s="14"/>
+        <v>360000</v>
+      </c>
+      <c r="M145" s="15"/>
       <c r="N145" s="20"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="29">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C146" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D146" s="55" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E146" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G146" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H146" s="56">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I146" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J146" s="37">
-        <v>44027</v>
+        <v>44150</v>
       </c>
       <c r="K146" s="37">
-        <v>46582</v>
+        <v>46705</v>
       </c>
       <c r="L146" s="14">
         <v>3000000</v>
@@ -9325,64 +9352,68 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="29">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C147" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" s="55">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="D147" s="55" t="s">
+        <v>159</v>
       </c>
       <c r="E147" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G147" s="51" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="H147" s="56">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="I147" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="J147" s="37"/>
+        <v>170</v>
+      </c>
+      <c r="J147" s="37">
+        <v>44027</v>
+      </c>
       <c r="K147" s="37">
-        <v>46599</v>
-      </c>
-      <c r="L147" s="14"/>
-      <c r="M147" s="15"/>
+        <v>46582</v>
+      </c>
+      <c r="L147" s="14">
+        <v>3000000</v>
+      </c>
+      <c r="M147" s="14"/>
       <c r="N147" s="20"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="29">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C148" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D148" s="55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E148" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G148" s="51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H148" s="56">
-        <v>34.24</v>
+        <v>54</v>
       </c>
       <c r="I148" s="66" t="s">
         <v>3</v>
@@ -9397,28 +9428,28 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="29">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C149" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D149" s="55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E149" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G149" s="51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H149" s="56">
-        <v>22.72</v>
+        <v>34.24</v>
       </c>
       <c r="I149" s="66" t="s">
         <v>3</v>
@@ -9433,28 +9464,28 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="29">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C150" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D150" s="55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E150" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G150" s="51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H150" s="56">
-        <v>139.47</v>
+        <v>22.72</v>
       </c>
       <c r="I150" s="66" t="s">
         <v>3</v>
@@ -9469,28 +9500,28 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="29">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B151" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C151" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D151" s="55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E151" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G151" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H151" s="56">
-        <v>17.96</v>
+        <v>139.47</v>
       </c>
       <c r="I151" s="66" t="s">
         <v>3</v>
@@ -9505,28 +9536,28 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="29">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B152" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C152" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D152" s="55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E152" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G152" s="51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H152" s="56">
-        <v>72.400000000000006</v>
+        <v>17.96</v>
       </c>
       <c r="I152" s="66" t="s">
         <v>3</v>
@@ -9541,62 +9572,58 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="29">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B153" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C153" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D153" s="55" t="s">
-        <v>18</v>
+      <c r="D153" s="55">
+        <v>6</v>
       </c>
       <c r="E153" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G153" s="51" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="H153" s="56">
-        <v>26.38</v>
-      </c>
-      <c r="I153" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="J153" s="37">
-        <v>44211</v>
-      </c>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="I153" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="J153" s="37"/>
       <c r="K153" s="37">
-        <v>46401</v>
-      </c>
-      <c r="L153" s="14">
-        <v>2750000</v>
-      </c>
+        <v>46599</v>
+      </c>
+      <c r="L153" s="14"/>
       <c r="M153" s="15"/>
       <c r="N153" s="20"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="29">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B154" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C154" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D154" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="55" t="s">
         <v>18</v>
       </c>
       <c r="E154" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G154" s="51" t="s">
         <v>87</v>
@@ -9605,31 +9632,29 @@
         <v>26.38</v>
       </c>
       <c r="I154" s="68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J154" s="37">
-        <v>44058</v>
+        <v>44211</v>
       </c>
       <c r="K154" s="37">
-        <v>46613</v>
+        <v>46401</v>
       </c>
       <c r="L154" s="14">
         <v>2750000</v>
       </c>
-      <c r="M154" s="14" t="s">
-        <v>84</v>
-      </c>
+      <c r="M154" s="15"/>
       <c r="N154" s="20"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="29">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B155" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C155" s="48" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="D155" s="48" t="s">
         <v>18</v>
@@ -9638,7 +9663,7 @@
         <v>16</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G155" s="51" t="s">
         <v>86</v>
@@ -9647,31 +9672,31 @@
         <v>26.38</v>
       </c>
       <c r="I155" s="68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J155" s="37">
-        <v>43739</v>
+        <v>44058</v>
       </c>
       <c r="K155" s="37">
-        <v>46660</v>
+        <v>46613</v>
       </c>
       <c r="L155" s="14">
         <v>2750000</v>
       </c>
       <c r="M155" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N155" s="20"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="29">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C156" s="48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D156" s="48" t="s">
         <v>18</v>
@@ -9680,51 +9705,94 @@
         <v>16</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G156" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="G156" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="H156" s="56">
+        <v>26.38</v>
+      </c>
+      <c r="I156" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="J156" s="37">
+        <v>43739</v>
+      </c>
+      <c r="K156" s="37">
+        <v>46660</v>
+      </c>
+      <c r="L156" s="14">
+        <v>2750000</v>
+      </c>
+      <c r="M156" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H156" s="64">
+      <c r="N156" s="20"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A157" s="29">
+        <v>154</v>
+      </c>
+      <c r="B157" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C157" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D157" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G157" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="H157" s="64">
         <v>26.38</v>
       </c>
-      <c r="I156" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="J156" s="37">
+      <c r="I157" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="J157" s="37">
         <v>43753</v>
       </c>
-      <c r="K156" s="37">
+      <c r="K157" s="37">
         <v>46674</v>
       </c>
-      <c r="L156" s="49">
+      <c r="L157" s="49">
         <v>2750000</v>
       </c>
-      <c r="M156" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="N156" s="20"/>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A157" s="74" t="s">
+      <c r="M157" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="N157" s="20"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A158" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B157" s="75"/>
-      <c r="C157" s="17"/>
-      <c r="D157" s="17"/>
-      <c r="E157" s="17"/>
-      <c r="F157" s="75"/>
-      <c r="G157" s="76"/>
-      <c r="H157" s="82"/>
-      <c r="I157" s="77"/>
-      <c r="J157" s="77"/>
-      <c r="K157" s="77"/>
-      <c r="L157" s="83"/>
-      <c r="M157" s="83"/>
-      <c r="N157" s="53"/>
+      <c r="B158" s="75"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="75"/>
+      <c r="G158" s="76"/>
+      <c r="H158" s="82"/>
+      <c r="I158" s="77"/>
+      <c r="J158" s="77"/>
+      <c r="K158" s="77"/>
+      <c r="L158" s="83"/>
+      <c r="M158" s="83"/>
+      <c r="N158" s="53"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G154:G156 G1:G5 G147:G152 G128:G131 G12:G26 G66:G68 G31:G47 G107:G123 G49:G58 G60:G64 G133:G145">
+  <phoneticPr fontId="23" type="noConversion"/>
+  <conditionalFormatting sqref="G155:G157 G1:G5 G148:G153 G129:G132 G12:G26 G66:G68 G31:G47 G108:G124 G49:G58 G60:G64 G134:G146">
     <cfRule type="expression" dxfId="75" priority="115">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G1)),(ISNUMBER(SEARCH("-&gt;",G1))))</formula>
     </cfRule>
@@ -9740,12 +9808,12 @@
       <formula>AND(ISNUMBER(SEARCH("Vacant", G7)),NOT(ISNUMBER(SEARCH("-&gt;",G7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G153">
+  <conditionalFormatting sqref="G154">
     <cfRule type="expression" dxfId="71" priority="61">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G153)),(ISNUMBER(SEARCH("-&gt;",G153))))</formula>
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G154)),(ISNUMBER(SEARCH("-&gt;",G154))))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="70" priority="62">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G153)),NOT(ISNUMBER(SEARCH("-&gt;",G153))))</formula>
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G154)),NOT(ISNUMBER(SEARCH("-&gt;",G154))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
@@ -9764,20 +9832,20 @@
       <formula>AND(ISNUMBER(SEARCH("Vacant", G28)),NOT(ISNUMBER(SEARCH("-&gt;",G28))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G146">
+  <conditionalFormatting sqref="G147">
     <cfRule type="expression" dxfId="65" priority="49">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G146)),(ISNUMBER(SEARCH("-&gt;",G146))))</formula>
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G147)),(ISNUMBER(SEARCH("-&gt;",G147))))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="64" priority="50">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G146)),NOT(ISNUMBER(SEARCH("-&gt;",G146))))</formula>
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G147)),NOT(ISNUMBER(SEARCH("-&gt;",G147))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G133:G136">
+  <conditionalFormatting sqref="G134:G137">
     <cfRule type="expression" dxfId="63" priority="45">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G133)),(ISNUMBER(SEARCH("-&gt;",G133))))</formula>
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G134)),(ISNUMBER(SEARCH("-&gt;",G134))))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="62" priority="46">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G133)),NOT(ISNUMBER(SEARCH("-&gt;",G133))))</formula>
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G134)),NOT(ISNUMBER(SEARCH("-&gt;",G134))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
@@ -9825,7 +9893,7 @@
       <formula>RIGHT(G1,LEN("vacant}"))="vacant}"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G47 G49:G58 G60:G64 G66:G156">
+  <conditionalFormatting sqref="G2:G47 G49:G58 G60:G64 G66:G157">
     <cfRule type="containsText" dxfId="50" priority="21" operator="containsText" text="vacant} -&gt;">
       <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G2)))</formula>
     </cfRule>
@@ -9913,7 +9981,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
@@ -9923,7 +9991,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="4">
         <v>20</v>
@@ -9932,13 +10000,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H5" s="8">
         <v>137.67083232602312</v>
@@ -9962,20 +10030,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G5)),(ISNUMBER(SEARCH("-&gt;",G5))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G5)),NOT(ISNUMBER(SEARCH("-&gt;",G5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="endsWith" dxfId="1" priority="2" operator="endsWith" text="vacant}">
+    <cfRule type="endsWith" dxfId="15" priority="2" operator="endsWith" text="vacant}">
       <formula>RIGHT(G5,LEN("vacant}"))="vacant}"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="vacant} -&gt;">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="vacant} -&gt;">
       <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
